--- a/com.investing/src/test/resources/test_data.xlsx
+++ b/com.investing/src/test/resources/test_data.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.investing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E910C9A-49ED-4AB1-A101-2BCC01AA4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDA67B-BEB5-41E8-9BF0-0EAB1BFB50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E6B07CAB-9E9D-4F4F-8ED2-9F60846D63BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{E6B07CAB-9E9D-4F4F-8ED2-9F60846D63BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
+    <sheet name="TestInvalidLoginDP" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSearchDP" sheetId="3" r:id="rId3"/>
+    <sheet name="TestViewEconomicCalendarItemDP" sheetId="4" r:id="rId4"/>
+    <sheet name="TestViewArticleDP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>jadehades12@gmail.com</t>
   </si>
@@ -45,6 +49,24 @@
   </si>
   <si>
     <t>Eraz</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>Wrong email or password. Try again.</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BTC/USD - Bitcoin US Dollar</t>
   </si>
 </sst>
 </file>
@@ -410,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AD07BD-2F21-4842-92A4-D7624B35A785}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +458,135 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E6C035-B968-46D6-892B-2713AC6C4033}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{798C33F2-28A8-473E-827E-6A53CFC7F363}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1414DE8C-74E7-4E3A-89DA-07D5111D21DF}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{2664859E-554E-4904-ADE9-7803579E4A3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C28034-5C19-49CA-A2A1-9553812BC6D5}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094EC66F-2A31-4250-ADBA-3E117FFE1B16}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB379EE-6C69-4876-869A-AD8041E6ED80}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>